--- a/VLAD/ЕБУЧИЕ ВАГОНЫ/ЭП20.xlsx
+++ b/VLAD/ЕБУЧИЕ ВАГОНЫ/ЭП20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2721,9 +2721,6 @@
     <t>- Нажать ВОССТАНОВЛЕНИЕ ЗАЩИТЫ</t>
   </si>
   <si>
-    <t>qwe</t>
-  </si>
-  <si>
     <t>Температура нагрева БТР2 выше предельно допустимой -более 840 °C.</t>
   </si>
   <si>
@@ -2752,6 +2749,9 @@
   </si>
   <si>
     <t>Внимание ! Задана тяга при давлении в тормозных цилиндрах &gt; 0.</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -3167,20 +3167,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F601" sqref="F601"/>
+    <sheetView tabSelected="1" topLeftCell="A981" workbookViewId="0">
+      <selection activeCell="F985" sqref="F985"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3241,7 +3241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3263,7 +3263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3271,7 +3271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3293,7 +3293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3301,7 +3301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3323,7 +3323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3345,7 +3345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3353,7 +3353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -3377,7 +3377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -3385,7 +3385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
@@ -3393,7 +3393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3415,7 +3415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3423,7 +3423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3445,7 +3445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3453,7 +3453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3475,7 +3475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3483,7 +3483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3491,7 +3491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3513,7 +3513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3521,7 +3521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3529,7 +3529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3551,7 +3551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3559,7 +3559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3567,7 +3567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3589,7 +3589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3597,7 +3597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3605,7 +3605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3627,7 +3627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3635,7 +3635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3643,7 +3643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>15</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3665,7 +3665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3673,7 +3673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3681,7 +3681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>16</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3703,7 +3703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>17</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>18</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3739,7 +3739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3747,7 +3747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3755,7 +3755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3763,7 +3763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3771,7 +3771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>19</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3793,7 +3793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3801,7 +3801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3809,7 +3809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3817,7 +3817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3825,7 +3825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3833,7 +3833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>20</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>21</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>22</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>23</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3897,7 +3897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3913,7 +3913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3921,7 +3921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3929,7 +3929,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>24</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3951,7 +3951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>25</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3973,7 +3973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3981,7 +3981,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3989,7 +3989,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>26</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5" t="s">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>27</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4033,7 +4033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>28</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4055,7 +4055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>29</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4077,7 +4077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>30</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4099,7 +4099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4107,7 +4107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -4115,7 +4115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4137,7 +4137,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4145,7 +4145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4153,7 +4153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4161,7 +4161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4169,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4177,7 +4177,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>32</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4199,7 +4199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4207,7 +4207,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4215,7 +4215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4223,7 +4223,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>33</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4245,7 +4245,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4253,7 +4253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4261,7 +4261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>34</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>35</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4297,7 +4297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4305,7 +4305,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4313,7 +4313,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>36</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4335,7 +4335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4343,7 +4343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4351,7 +4351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>37</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4373,7 +4373,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>38</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4395,7 +4395,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4403,7 +4403,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4411,7 +4411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>39</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4433,7 +4433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4441,7 +4441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4449,7 +4449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>40</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4471,7 +4471,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>41</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4493,7 +4493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4515,7 +4515,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4523,7 +4523,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4531,7 +4531,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4539,7 +4539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4561,7 +4561,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4569,7 +4569,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4577,7 +4577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4585,7 +4585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4607,7 +4607,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4615,7 +4615,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4623,7 +4623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4631,7 +4631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4639,7 +4639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4661,7 +4661,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4669,7 +4669,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4677,7 +4677,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4685,7 +4685,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4693,7 +4693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>46</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4715,7 +4715,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4723,7 +4723,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4731,7 +4731,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4739,7 +4739,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>47</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4761,7 +4761,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4769,7 +4769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4777,7 +4777,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>169</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>49</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4813,7 +4813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4821,7 +4821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4829,7 +4829,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4837,7 +4837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4845,7 +4845,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4853,7 +4853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4861,7 +4861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>50</v>
       </c>
@@ -4869,13 +4869,13 @@
         <v>145</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4883,7 +4883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="6"/>
@@ -4891,7 +4891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="6"/>
@@ -4899,7 +4899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="6"/>
@@ -4907,7 +4907,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="6"/>
@@ -4915,7 +4915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="6"/>
@@ -4923,7 +4923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="6"/>
@@ -4931,7 +4931,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -4939,7 +4939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>51</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4961,7 +4961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4969,7 +4969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4977,7 +4977,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4985,7 +4985,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4993,7 +4993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5001,7 +5001,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -5009,7 +5009,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>52</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5031,7 +5031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5039,7 +5039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5047,7 +5047,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5055,7 +5055,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5063,7 +5063,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5071,7 +5071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5079,7 +5079,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>53</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5101,7 +5101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -5109,7 +5109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -5117,7 +5117,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -5125,7 +5125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -5133,7 +5133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -5141,7 +5141,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -5149,7 +5149,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -5157,7 +5157,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>54</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -5179,7 +5179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -5187,7 +5187,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -5195,7 +5195,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -5203,7 +5203,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -5211,7 +5211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -5219,7 +5219,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -5227,7 +5227,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>55</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>56</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -5263,7 +5263,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -5271,7 +5271,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -5279,7 +5279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -5287,7 +5287,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -5295,7 +5295,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -5303,7 +5303,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>57</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -5325,7 +5325,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -5333,7 +5333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -5341,7 +5341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -5349,7 +5349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -5357,7 +5357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -5365,7 +5365,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5373,7 +5373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>58</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -5395,7 +5395,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -5403,7 +5403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -5411,7 +5411,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -5419,7 +5419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -5427,7 +5427,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -5435,7 +5435,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>59</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -5457,7 +5457,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -5465,7 +5465,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -5473,7 +5473,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -5481,7 +5481,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -5489,7 +5489,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -5497,7 +5497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>60</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5519,7 +5519,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5527,7 +5527,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5535,7 +5535,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5543,7 +5543,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5551,7 +5551,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -5559,7 +5559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>61</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -5581,7 +5581,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -5589,7 +5589,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -5597,7 +5597,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -5605,7 +5605,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -5613,7 +5613,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -5621,7 +5621,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>62</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -5643,7 +5643,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -5651,7 +5651,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>63</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -5673,7 +5673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>64</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -5695,7 +5695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>65</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -5717,7 +5717,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -5725,7 +5725,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -5733,7 +5733,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -5741,7 +5741,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -5749,7 +5749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -5757,7 +5757,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -5765,7 +5765,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>252</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -5787,7 +5787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -5795,7 +5795,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5803,7 +5803,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -5811,7 +5811,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -5819,7 +5819,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -5827,7 +5827,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -5835,7 +5835,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>255</v>
       </c>
@@ -5843,13 +5843,13 @@
         <v>237</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="2"/>
@@ -5857,7 +5857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="6"/>
@@ -5865,7 +5865,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="6"/>
@@ -5873,7 +5873,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="6"/>
@@ -5881,7 +5881,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="6"/>
@@ -5889,7 +5889,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="7"/>
@@ -5897,7 +5897,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>257</v>
       </c>
@@ -5905,13 +5905,13 @@
         <v>237</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="2"/>
@@ -5919,7 +5919,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="6"/>
@@ -5927,7 +5927,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="6"/>
@@ -5935,7 +5935,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="6"/>
@@ -5943,7 +5943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="6"/>
@@ -5951,7 +5951,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="7"/>
@@ -5959,7 +5959,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>69</v>
       </c>
@@ -5967,13 +5967,13 @@
         <v>237</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="2"/>
@@ -5981,7 +5981,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="6"/>
@@ -5989,7 +5989,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="6"/>
@@ -5997,7 +5997,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="6"/>
@@ -6005,7 +6005,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="6"/>
@@ -6013,7 +6013,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="7"/>
@@ -6021,7 +6021,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>70</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -6043,7 +6043,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -6051,7 +6051,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -6059,7 +6059,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>71</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -6081,7 +6081,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -6089,7 +6089,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -6097,7 +6097,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -6105,7 +6105,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -6113,7 +6113,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>72</v>
       </c>
@@ -6121,13 +6121,13 @@
         <v>275</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="2"/>
@@ -6135,7 +6135,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="7"/>
@@ -6143,7 +6143,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>73</v>
       </c>
@@ -6151,13 +6151,13 @@
         <v>275</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="2"/>
@@ -6165,7 +6165,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="7"/>
@@ -6173,7 +6173,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>74</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -6195,7 +6195,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -6203,7 +6203,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -6211,7 +6211,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -6219,7 +6219,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>75</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -6241,7 +6241,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -6249,7 +6249,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -6257,7 +6257,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -6265,7 +6265,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>76</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -6287,7 +6287,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -6295,7 +6295,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -6303,7 +6303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -6311,7 +6311,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>77</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -6333,7 +6333,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -6341,7 +6341,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -6349,7 +6349,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -6357,7 +6357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>78</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6379,7 +6379,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -6387,7 +6387,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -6395,7 +6395,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -6403,7 +6403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>79</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -6425,7 +6425,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -6433,7 +6433,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -6441,7 +6441,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>80</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -6463,7 +6463,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -6471,7 +6471,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -6479,7 +6479,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -6487,7 +6487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>81</v>
       </c>
@@ -6495,13 +6495,13 @@
         <v>275</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -6509,7 +6509,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -6517,7 +6517,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -6525,7 +6525,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -6533,7 +6533,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="4"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -6541,7 +6541,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>82</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -6563,7 +6563,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -6571,7 +6571,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -6579,7 +6579,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -6587,7 +6587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>83</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -6609,7 +6609,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -6617,7 +6617,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -6625,7 +6625,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -6633,7 +6633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>84</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -6655,7 +6655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -6663,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -6671,7 +6671,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -6679,7 +6679,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>85</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -6701,7 +6701,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -6709,7 +6709,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -6717,7 +6717,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -6725,7 +6725,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>86</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -6747,7 +6747,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -6755,7 +6755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -6763,7 +6763,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -6771,7 +6771,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>87</v>
       </c>
@@ -6779,13 +6779,13 @@
         <v>275</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="2"/>
@@ -6793,7 +6793,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="6"/>
@@ -6801,7 +6801,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="6"/>
@@ -6809,7 +6809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="6"/>
@@ -6817,7 +6817,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="7"/>
@@ -6825,7 +6825,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>88</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -6847,7 +6847,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -6855,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -6863,7 +6863,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -6871,7 +6871,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>89</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -6893,7 +6893,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -6901,7 +6901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -6909,7 +6909,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -6917,7 +6917,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>90</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -6939,7 +6939,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -6947,7 +6947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -6955,7 +6955,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -6963,7 +6963,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>91</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -6985,7 +6985,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -6993,7 +6993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -7001,7 +7001,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -7009,7 +7009,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>92</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -7031,7 +7031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -7039,7 +7039,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -7047,7 +7047,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -7055,7 +7055,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -7063,7 +7063,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>93</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -7085,7 +7085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -7093,7 +7093,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -7101,7 +7101,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -7109,7 +7109,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>94</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -7131,7 +7131,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -7139,7 +7139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -7147,7 +7147,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -7155,7 +7155,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -7163,7 +7163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>95</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -7185,7 +7185,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -7193,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -7201,7 +7201,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -7209,7 +7209,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -7217,7 +7217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>96</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -7239,7 +7239,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -7247,7 +7247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -7255,7 +7255,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -7263,7 +7263,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -7271,7 +7271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>97</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -7293,7 +7293,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -7301,7 +7301,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -7309,7 +7309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -7317,7 +7317,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -7325,7 +7325,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -7333,7 +7333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>98</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -7355,7 +7355,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -7363,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -7371,7 +7371,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -7379,7 +7379,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -7387,7 +7387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>99</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -7409,7 +7409,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -7417,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -7425,7 +7425,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -7433,7 +7433,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -7441,7 +7441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>100</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -7463,7 +7463,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -7471,7 +7471,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -7479,7 +7479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -7487,7 +7487,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -7495,7 +7495,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -7503,7 +7503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -7511,7 +7511,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -7519,7 +7519,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>101</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -7541,7 +7541,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -7549,7 +7549,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -7557,7 +7557,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -7565,7 +7565,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -7573,7 +7573,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -7581,7 +7581,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -7589,7 +7589,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -7597,7 +7597,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>102</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -7619,7 +7619,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -7627,7 +7627,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -7635,7 +7635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -7643,7 +7643,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -7651,7 +7651,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -7659,7 +7659,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -7667,7 +7667,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -7675,7 +7675,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>103</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -7697,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -7705,7 +7705,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -7713,7 +7713,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>104</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -7735,7 +7735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -7743,7 +7743,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -7751,7 +7751,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -7759,7 +7759,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>105</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -7781,7 +7781,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -7789,7 +7789,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>106</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="2" t="s">
@@ -7813,7 +7813,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="7"/>
@@ -7821,7 +7821,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>107</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -7843,7 +7843,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -7851,7 +7851,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>108</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -7873,7 +7873,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -7881,7 +7881,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>109</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -7903,7 +7903,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -7911,7 +7911,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -7919,7 +7919,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>110</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -7941,7 +7941,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -7949,7 +7949,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>111</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -7971,7 +7971,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -7979,7 +7979,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>112</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -8001,7 +8001,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -8009,7 +8009,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>113</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -8031,7 +8031,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -8039,7 +8039,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>114</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -8061,7 +8061,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -8069,7 +8069,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>115</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -8091,7 +8091,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -8099,7 +8099,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>116</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -8121,7 +8121,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -8129,7 +8129,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>117</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -8151,7 +8151,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -8159,7 +8159,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>118</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -8181,7 +8181,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -8189,7 +8189,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>119</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -8211,7 +8211,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -8219,7 +8219,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>120</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -8241,7 +8241,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -8249,7 +8249,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -8257,7 +8257,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>121</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -8279,7 +8279,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -8287,7 +8287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>122</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -8309,7 +8309,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -8317,7 +8317,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>123</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -8339,7 +8339,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -8347,7 +8347,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="4">
         <v>124</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>125</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -8383,7 +8383,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -8391,7 +8391,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>126</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -8413,7 +8413,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -8421,7 +8421,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>127</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -8443,7 +8443,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -8451,7 +8451,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>128</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -8473,7 +8473,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -8481,7 +8481,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -8489,7 +8489,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -8497,7 +8497,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>129</v>
       </c>
@@ -8505,13 +8505,13 @@
         <v>468</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="2"/>
@@ -8519,7 +8519,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="6"/>
@@ -8527,7 +8527,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="7"/>
@@ -8535,7 +8535,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>130</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -8557,7 +8557,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>131</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -8579,7 +8579,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -8587,7 +8587,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>132</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -8609,7 +8609,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -8617,7 +8617,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>133</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -8639,7 +8639,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>134</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -8661,7 +8661,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -8669,7 +8669,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -8677,7 +8677,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -8685,7 +8685,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -8693,7 +8693,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -8701,7 +8701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>135</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -8723,7 +8723,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -8731,7 +8731,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>136</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -8753,7 +8753,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -8761,7 +8761,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>137</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -8783,7 +8783,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -8791,7 +8791,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>138</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -8813,7 +8813,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -8821,7 +8821,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="4">
         <v>139</v>
       </c>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="D602" s="5"/>
     </row>
-    <row r="603" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>140</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -8855,7 +8855,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>141</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -8877,7 +8877,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -8885,7 +8885,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>142</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -8907,7 +8907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>143</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -8929,7 +8929,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -8937,7 +8937,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -8945,7 +8945,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -8953,7 +8953,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -8961,7 +8961,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>144</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -8983,7 +8983,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -8991,7 +8991,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -8999,7 +8999,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>145</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -9021,7 +9021,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -9029,7 +9029,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -9037,7 +9037,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>146</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -9059,7 +9059,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>147</v>
       </c>
@@ -9067,13 +9067,13 @@
         <v>201</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="2"/>
@@ -9081,7 +9081,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="6"/>
@@ -9089,7 +9089,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="6"/>
@@ -9097,7 +9097,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="7"/>
@@ -9105,7 +9105,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>148</v>
       </c>
@@ -9113,13 +9113,13 @@
         <v>201</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D631" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="2"/>
@@ -9127,7 +9127,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="6"/>
@@ -9135,7 +9135,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="7"/>
@@ -9143,7 +9143,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>149</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -9165,7 +9165,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -9173,7 +9173,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>150</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -9195,7 +9195,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -9203,7 +9203,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>151</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -9225,7 +9225,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -9233,7 +9233,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>152</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -9255,7 +9255,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -9263,7 +9263,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>153</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -9285,7 +9285,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -9293,7 +9293,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>154</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -9315,7 +9315,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -9323,7 +9323,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>155</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -9345,7 +9345,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -9353,7 +9353,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -9361,7 +9361,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -9369,7 +9369,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -9377,7 +9377,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -9385,7 +9385,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>156</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -9407,7 +9407,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -9415,7 +9415,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -9423,7 +9423,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -9431,7 +9431,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -9439,7 +9439,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -9447,7 +9447,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>157</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -9469,7 +9469,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>158</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -9491,7 +9491,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -9499,7 +9499,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>159</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -9521,7 +9521,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>160</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -9543,7 +9543,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -9551,7 +9551,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="4">
         <v>161</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="4">
         <v>162</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="4">
         <v>163</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A680" s="4">
         <v>164</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>165</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -9629,7 +9629,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>166</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -9651,7 +9651,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -9659,7 +9659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>167</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -9681,7 +9681,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -9689,7 +9689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>168</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -9711,7 +9711,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -9719,7 +9719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>169</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -9741,7 +9741,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -9749,7 +9749,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -9757,7 +9757,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>170</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -9779,7 +9779,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>171</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -9801,7 +9801,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -9809,7 +9809,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -9817,7 +9817,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -9825,7 +9825,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>172</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -9847,7 +9847,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -9855,7 +9855,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A706" s="4">
         <v>173</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A707" s="4">
         <v>174</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A708" s="4">
         <v>175</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A709" s="4">
         <v>176</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A710" s="4">
         <v>177</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A711" s="4">
         <v>178</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A712" s="4">
         <v>179</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A713" s="4">
         <v>180</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A714" s="4">
         <v>181</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="4">
         <v>182</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A716" s="4">
         <v>183</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A717" s="4">
         <v>184</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A718" s="4">
         <v>185</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>186</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -10059,7 +10059,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -10067,7 +10067,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>187</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -10089,7 +10089,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -10097,7 +10097,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -10105,7 +10105,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>188</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -10127,7 +10127,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -10135,7 +10135,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -10143,7 +10143,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -10151,7 +10151,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A731" s="4">
         <v>189</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>190</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -10187,7 +10187,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -10195,7 +10195,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -10203,7 +10203,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>191</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -10225,7 +10225,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -10233,7 +10233,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -10241,7 +10241,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>192</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -10263,7 +10263,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -10271,7 +10271,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -10279,7 +10279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>193</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -10301,7 +10301,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -10309,7 +10309,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -10317,7 +10317,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -10325,7 +10325,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -10333,7 +10333,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>194</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -10355,7 +10355,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -10363,7 +10363,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -10371,7 +10371,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -10379,7 +10379,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -10387,7 +10387,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>195</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -10409,7 +10409,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -10417,7 +10417,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -10425,7 +10425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -10433,7 +10433,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>196</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -10455,7 +10455,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -10463,7 +10463,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -10471,7 +10471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -10479,7 +10479,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>197</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -10501,7 +10501,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -10509,7 +10509,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -10517,7 +10517,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>198</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -10539,7 +10539,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -10547,7 +10547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>199</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -10569,7 +10569,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -10577,7 +10577,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -10585,7 +10585,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>200</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -10607,7 +10607,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -10615,7 +10615,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -10623,7 +10623,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>201</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -10645,7 +10645,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -10653,7 +10653,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -10661,7 +10661,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A785" s="4" t="s">
         <v>686</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="4">
         <v>203</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" ht="219" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A787" s="4">
         <v>204</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A788" s="4">
         <v>205</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>206</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -10739,7 +10739,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -10747,7 +10747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -10755,7 +10755,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -10763,7 +10763,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>207</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="2" t="s">
@@ -10787,7 +10787,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="6"/>
@@ -10795,7 +10795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="6"/>
@@ -10803,7 +10803,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="7"/>
@@ -10811,7 +10811,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>208</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -10833,7 +10833,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -10841,7 +10841,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -10849,7 +10849,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -10857,7 +10857,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>209</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -10879,7 +10879,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -10887,7 +10887,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -10895,7 +10895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -10903,7 +10903,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -10911,7 +10911,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>210</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -10933,7 +10933,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -10941,7 +10941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -10949,7 +10949,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -10957,7 +10957,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>211</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -10979,7 +10979,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -10987,7 +10987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -10995,7 +10995,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -11003,7 +11003,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>212</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -11025,7 +11025,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -11033,7 +11033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -11041,7 +11041,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -11049,7 +11049,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>213</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="2" t="s">
@@ -11073,7 +11073,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="6"/>
@@ -11081,7 +11081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="6"/>
@@ -11089,7 +11089,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="7"/>
@@ -11097,7 +11097,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>214</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -11119,7 +11119,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -11127,7 +11127,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -11135,7 +11135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -11143,7 +11143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -11151,7 +11151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>215</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -11173,7 +11173,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A838" s="4">
         <v>216</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A839" s="4"/>
       <c r="B839" s="5" t="s">
         <v>560</v>
@@ -11199,7 +11199,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A840" s="4">
         <v>217</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A841" s="4">
         <v>218</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A842" s="4">
         <v>219</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A843" s="4">
         <v>220</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A844" s="4">
         <v>221</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A845" s="4">
         <v>222</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="4">
         <v>223</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="4">
         <v>224</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>225</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="5" t="s">
@@ -11335,7 +11335,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="252.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" ht="234.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A850" s="4">
         <v>226</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" ht="265.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A851" s="4">
         <v>227</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" ht="265.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A852" s="4">
         <v>228</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A853" s="4">
         <v>229</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A854" s="4">
         <v>230</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A855" s="4">
         <v>231</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" ht="390.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A856" s="4">
         <v>232</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A857" s="4">
         <v>233</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>234</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -11469,7 +11469,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -11477,7 +11477,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -11485,7 +11485,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>235</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -11507,7 +11507,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -11515,7 +11515,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -11523,7 +11523,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>236</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -11545,7 +11545,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -11553,7 +11553,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -11561,7 +11561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>237</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -11583,7 +11583,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -11591,7 +11591,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -11599,7 +11599,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -11607,7 +11607,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A875" s="4">
         <v>238</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A876" s="4">
         <v>239</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A877" s="4">
         <v>240</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A878" s="4">
         <v>241</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A879" s="4">
         <v>242</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A880" s="4">
         <v>243</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A881" s="1">
         <v>244</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="5" t="s">
@@ -11715,7 +11715,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A883" s="4">
         <v>245</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A884" s="4">
         <v>246</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A885" s="4">
         <v>247</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A886" s="4">
         <v>248</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A887" s="4">
         <v>249</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A888" s="1">
         <v>250</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -11807,7 +11807,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -11815,7 +11815,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -11823,7 +11823,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A892" s="1">
         <v>251</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -11845,7 +11845,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -11853,7 +11853,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -11861,7 +11861,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A896" s="1">
         <v>252</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -11883,7 +11883,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -11891,7 +11891,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -11899,7 +11899,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <v>253</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -11921,7 +11921,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -11929,7 +11929,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -11937,7 +11937,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <v>254</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -11959,7 +11959,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -11967,7 +11967,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -11975,7 +11975,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <v>255</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -11997,7 +11997,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -12005,7 +12005,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -12013,7 +12013,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A912" s="1">
         <v>256</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -12035,7 +12035,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -12043,7 +12043,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -12051,7 +12051,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A916" s="1">
         <v>257</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -12073,7 +12073,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -12081,7 +12081,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -12089,7 +12089,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A920" s="1">
         <v>258</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -12111,7 +12111,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -12119,7 +12119,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -12127,7 +12127,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <v>259</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -12149,7 +12149,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -12157,7 +12157,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -12165,7 +12165,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <v>260</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -12187,7 +12187,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -12195,7 +12195,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -12203,7 +12203,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A932" s="4">
         <v>261</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A933" s="4">
         <v>262</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A934" s="4">
         <v>263</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A935" s="4">
         <v>264</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A936" s="1">
         <v>265</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -12281,7 +12281,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -12289,7 +12289,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A939" s="4" t="s">
         <v>843</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A940" s="1">
         <v>267</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -12325,7 +12325,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -12333,7 +12333,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -12341,7 +12341,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="944" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -12349,7 +12349,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:4" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A945" s="4">
         <v>268</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="946" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A946" s="1">
         <v>269</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -12385,7 +12385,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -12393,7 +12393,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="949" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
         <v>858</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="950" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -12415,7 +12415,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -12423,7 +12423,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -12431,7 +12431,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -12439,7 +12439,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="954" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A954" s="1">
         <v>271</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -12461,7 +12461,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -12469,7 +12469,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="957" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -12477,7 +12477,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -12485,7 +12485,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A959" s="1">
         <v>272</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -12507,7 +12507,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -12515,7 +12515,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A962" s="1" t="s">
         <v>864</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -12537,7 +12537,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -12545,7 +12545,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="965" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -12553,7 +12553,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="966" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -12561,7 +12561,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -12569,7 +12569,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="968" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -12577,7 +12577,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="969" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -12585,7 +12585,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="970" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A970" s="1" t="s">
         <v>871</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="971" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -12607,7 +12607,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -12615,7 +12615,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -12623,7 +12623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A974" s="1">
         <v>275</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="975" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -12645,7 +12645,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -12653,7 +12653,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="977" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -12661,7 +12661,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="978" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -12669,7 +12669,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -12677,7 +12677,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="980" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -12685,7 +12685,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A981" s="1" t="s">
         <v>880</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -12707,7 +12707,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="983" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -12715,7 +12715,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="984" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -12723,7 +12723,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -12731,7 +12731,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -12739,9 +12739,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B987" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
